--- a/SuggestedLists/eHistory.08 - Medical Surgical History.xlsx
+++ b/SuggestedLists/eHistory.08 - Medical Surgical History.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\cmann\DAILY FILES\GRANTS\NEMSIS\White Papers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-765" yWindow="435" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3936"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Surgical History " sheetId="3" r:id="rId1"/>
     <sheet name="Hierarchy Name &amp; Count" sheetId="5" r:id="rId2"/>
+    <sheet name="Change Log" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Medical Surgical History '!$A$3:$H$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Medical Surgical History '!$A$3:$H$368</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1116">
   <si>
     <t>A35</t>
   </si>
@@ -971,9 +977,6 @@
     <t>O12.10</t>
   </si>
   <si>
-    <t>O69.0XX0</t>
-  </si>
-  <si>
     <t>O42.919</t>
   </si>
   <si>
@@ -1022,9 +1025,6 @@
     <t>O90.3</t>
   </si>
   <si>
-    <t>O64.1XX0</t>
-  </si>
-  <si>
     <t>O99.310</t>
   </si>
   <si>
@@ -1172,9 +1172,6 @@
     <t>M84.38</t>
   </si>
   <si>
-    <t>M48.50XA</t>
-  </si>
-  <si>
     <t>M48.00</t>
   </si>
   <si>
@@ -3339,21 +3336,64 @@
   </si>
   <si>
     <t>ICD-10 Descriptions</t>
+  </si>
+  <si>
+    <t>M48.50</t>
+  </si>
+  <si>
+    <t>O64.1</t>
+  </si>
+  <si>
+    <t>O69.0</t>
+  </si>
+  <si>
+    <t>M48.50XA - Spinal Vertebral Collapse (Collapsed vertebra, not elsewhere classified, site unspecified, initial encounter for fracture) CHANGE TO: M48.50</t>
+  </si>
+  <si>
+    <t>O69.0XX0 - Prolapsed Cord (Labor and delivery complicated by prolapse of cord, not applicable or unspecified) CHANGE TO O69.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O64.1XX0 - Breech Presentation (Obstructed labor due to breech presentation, not applicable or unspecified) CHANGE TO: O64.1 </t>
+  </si>
+  <si>
+    <t>Additions - 6/25/2018</t>
+  </si>
+  <si>
+    <t>Addition - 7/20/2018</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I10 - Essential (primary) hypertension </t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Essential (primary) hypertension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3513,6 +3553,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3855,121 +3913,128 @@
   </borders>
   <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="89" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="90">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4082,6 +4147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4372,410 +4440,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.69921875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>272</v>
       </c>
@@ -4783,27 +4851,27 @@
         <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>272</v>
       </c>
@@ -4817,7 +4885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>272</v>
       </c>
@@ -4831,21 +4899,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>272</v>
       </c>
@@ -4853,27 +4921,27 @@
         <v>86</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>272</v>
       </c>
@@ -4881,13 +4949,13 @@
         <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>272</v>
       </c>
@@ -4895,13 +4963,13 @@
         <v>71</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>272</v>
       </c>
@@ -4909,242 +4977,242 @@
         <v>74</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>49</v>
@@ -5153,133 +5221,133 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>273</v>
       </c>
@@ -5287,102 +5355,102 @@
         <v>52</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>58</v>
@@ -5391,12 +5459,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>47</v>
@@ -5405,7 +5473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>273</v>
       </c>
@@ -5413,116 +5481,116 @@
         <v>283</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>55</v>
@@ -5531,180 +5599,180 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>144</v>
@@ -5713,3802 +5781,3816 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="C100" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D103" s="9" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D106" s="9" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1071</v>
+        <v>707</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>526</v>
+        <v>261</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>255</v>
+        <v>1068</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>709</v>
+        <v>260</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D119" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D123" s="9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B129" s="4" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D129" s="9" t="s">
+      <c r="C130" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D131" s="9" t="s">
+      <c r="C132" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>728</v>
+      <c r="B134" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>727</v>
+      <c r="B135" s="12" t="s">
+        <v>725</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>185</v>
+        <v>479</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>204</v>
+        <v>750</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>752</v>
+        <v>198</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>194</v>
+        <v>475</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>477</v>
+        <v>183</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1072</v>
+        <v>745</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>179</v>
+        <v>1069</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>747</v>
+        <v>179</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1092</v>
+        <v>739</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>208</v>
+        <v>1089</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>741</v>
+        <v>208</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>187</v>
+        <v>463</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>191</v>
+        <v>735</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>737</v>
+        <v>191</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>196</v>
+        <v>461</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>463</v>
+        <v>196</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>209</v>
+        <v>732</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>734</v>
+        <v>209</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>201</v>
+        <v>729</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>731</v>
+        <v>201</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B169" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B170" s="10" t="s">
+      <c r="C172" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="9" t="s">
+      <c r="C173" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B173" s="4" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D173" s="9" t="s">
+      <c r="C174" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C174" s="6" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D175" s="9" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1100</v>
+        <v>799</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>449</v>
+        <v>169</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>801</v>
+        <v>1097</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1074</v>
+        <v>798</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>800</v>
+        <v>1071</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1099</v>
+        <v>796</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>798</v>
+        <v>1094</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1096</v>
+        <v>788</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>790</v>
+        <v>1093</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>39</v>
+        <v>786</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>788</v>
+        <v>39</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>25</v>
+        <v>782</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>784</v>
+        <v>25</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>782</v>
+        <v>1070</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>425</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>31</v>
+        <v>778</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>780</v>
+        <v>31</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>15</v>
+        <v>772</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>774</v>
+        <v>15</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>46</v>
+        <v>770</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>772</v>
+        <v>46</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>23</v>
+        <v>408</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>410</v>
+        <v>23</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>43</v>
+        <v>763</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>765</v>
+        <v>7</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D234" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D235" s="9" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D236" s="9" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B237" s="4" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D237" s="9" t="s">
+      <c r="C238" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1075</v>
+        <v>811</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D240" s="9" t="s">
+      <c r="C241" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B241" s="4" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D241" s="9" t="s">
+      <c r="C242" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D242" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D243" s="9" t="s">
+      <c r="C244" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D244" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D244" s="9" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D245" s="9" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D246" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D246" s="9" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D247" s="9" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D248" s="9" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D249" s="9" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>383</v>
+        <v>803</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>1104</v>
       </c>
       <c r="D251" s="9" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1080</v>
+        <v>829</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>831</v>
+        <v>1077</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1077</v>
+        <v>828</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>830</v>
+        <v>1074</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>114</v>
+        <v>827</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>829</v>
+        <v>114</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>265</v>
+        <v>822</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>824</v>
+        <v>265</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>124</v>
+        <v>368</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>1079</v>
+        <v>819</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>821</v>
+        <v>1076</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>126</v>
+        <v>817</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1078</v>
+        <v>126</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>128</v>
+        <v>1075</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>819</v>
+        <v>128</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1076</v>
+        <v>816</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>818</v>
+        <v>1073</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>876</v>
+        <v>814</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>875</v>
+        <v>701</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>869</v>
+        <v>833</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1085</v>
+        <v>866</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>868</v>
+        <v>1082</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>333</v>
+        <v>865</v>
+      </c>
+      <c r="C305" s="18" t="s">
+        <v>1105</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>867</v>
+        <v>1081</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>332</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1083</v>
+        <v>864</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>242</v>
+        <v>1080</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>330</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>866</v>
+        <v>242</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>329</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1082</v>
+        <v>863</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>865</v>
+        <v>1079</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>327</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>326</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>323</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>321</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>320</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>319</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>317</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>316</v>
+        <v>850</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>1106</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>852</v>
+        <v>1078</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C329" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D330" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D330" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C337" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D337" s="9" t="s">
+      <c r="D338" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B338" s="4" t="s">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D354" s="7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="C338" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D338" s="9" t="s">
+      <c r="C358" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D363" s="9" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D339" s="9" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D364" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D340" s="9" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D341" s="9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D342" s="9" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D343" s="9" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D344" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D345" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D346" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D347" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D349" s="9" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D351" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B353" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D353" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B354" s="4" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B365" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="C354" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B355" s="4" t="s">
+      <c r="C365" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B366" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="C355" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B356" s="4" t="s">
+      <c r="C366" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B368" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="D356" s="9" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D357" s="9" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D359" s="9" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D360" s="9" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D361" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D364" s="9" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="C367" s="6" t="s">
+      <c r="C368" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D367" s="9" t="s">
+      <c r="D368" s="9" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H367"/>
+  <autoFilter ref="A3:H368"/>
   <sortState ref="A2:J366">
     <sortCondition ref="A348"/>
   </sortState>
@@ -9525,29 +9607,29 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -9555,7 +9637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>273</v>
       </c>
@@ -9563,15 +9645,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -9579,7 +9661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -9587,15 +9669,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -9603,7 +9685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -9611,23 +9693,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>278</v>
       </c>
@@ -9635,15 +9717,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>279</v>
       </c>
@@ -9651,7 +9733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -9659,7 +9741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>281</v>
       </c>
@@ -9667,7 +9749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>282</v>
       </c>
@@ -9675,15 +9757,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -9691,17 +9773,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -9711,4 +9793,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuggestedLists/eHistory.08 - Medical Surgical History.xlsx
+++ b/SuggestedLists/eHistory.08 - Medical Surgical History.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\cmann\DAILY FILES\GRANTS\NEMSIS\White Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecorrea\Public Repositories\nemsis_public\SuggestedLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CBEC32-B85B-46A6-B956-A5CF8FBB6B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Surgical History " sheetId="3" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Change Log" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Medical Surgical History '!$A$3:$H$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Medical Surgical History '!$A$3:$D$368</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1128">
   <si>
     <t>A35</t>
   </si>
@@ -3329,9 +3330,6 @@
     <t>ICD-10-CM Codes</t>
   </si>
   <si>
-    <t>NEMSIS Hierarchy List 11-23-2016</t>
-  </si>
-  <si>
     <t>NEMSIS TAC Version 3 - Medical / Surgical History Hierarchy List (eHistory.08)</t>
   </si>
   <si>
@@ -3372,16 +3370,55 @@
   </si>
   <si>
     <t>Essential (primary) hypertension</t>
+  </si>
+  <si>
+    <t>NEMSIS Hierarchy List 10/5/2022</t>
+  </si>
+  <si>
+    <t>Addition - 10/05/2022</t>
+  </si>
+  <si>
+    <t>A49.2</t>
+  </si>
+  <si>
+    <t>Hemophilus influenzae infection, unspecified site</t>
+  </si>
+  <si>
+    <t>B97.29</t>
+  </si>
+  <si>
+    <t>Other coronavirus as the cause of diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>J12.82</t>
+  </si>
+  <si>
+    <t>Pneumonia due to coronavirus disease 2019</t>
+  </si>
+  <si>
+    <t>A 49.2 - Hemophilus influenzae infection, unspecified site</t>
+  </si>
+  <si>
+    <t>B97.29 - Other coronavirus as the cause of diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>J12.82 - Pneumonia due to coronavirus disease 2019</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Coronavirus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3570,6 +3607,19 @@
       <sz val="11"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4003,7 +4053,7 @@
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4035,108 +4085,113 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="90">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="66"/>
+    <cellStyle name="20% - Accent1 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="70"/>
+    <cellStyle name="20% - Accent2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="74"/>
+    <cellStyle name="20% - Accent3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="78"/>
+    <cellStyle name="20% - Accent4 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="82"/>
+    <cellStyle name="20% - Accent5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="86"/>
+    <cellStyle name="20% - Accent6 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="67"/>
+    <cellStyle name="40% - Accent1 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="71"/>
+    <cellStyle name="40% - Accent2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="75"/>
+    <cellStyle name="40% - Accent3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="79"/>
+    <cellStyle name="40% - Accent4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="83"/>
+    <cellStyle name="40% - Accent5 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="87"/>
+    <cellStyle name="40% - Accent6 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="68"/>
+    <cellStyle name="60% - Accent1 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="72"/>
+    <cellStyle name="60% - Accent2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="76"/>
+    <cellStyle name="60% - Accent3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="80"/>
+    <cellStyle name="60% - Accent4 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="84"/>
+    <cellStyle name="60% - Accent5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="88"/>
+    <cellStyle name="60% - Accent6 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 2" xfId="65"/>
+    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 2" xfId="69"/>
+    <cellStyle name="Accent2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 2" xfId="73"/>
+    <cellStyle name="Accent3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 2" xfId="77"/>
+    <cellStyle name="Accent4 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 2" xfId="81"/>
+    <cellStyle name="Accent5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 2" xfId="85"/>
+    <cellStyle name="Accent6 2" xfId="85" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Bad 2" xfId="54"/>
+    <cellStyle name="Bad 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Calculation 2" xfId="58"/>
+    <cellStyle name="Calculation 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Check Cell 2" xfId="60"/>
+    <cellStyle name="Check Cell 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="63"/>
+    <cellStyle name="Explanatory Text 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Good 2" xfId="53"/>
+    <cellStyle name="Good 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 1 2" xfId="49"/>
+    <cellStyle name="Heading 1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 2 2" xfId="50"/>
+    <cellStyle name="Heading 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 3 2" xfId="51"/>
+    <cellStyle name="Heading 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Heading 4 2" xfId="52"/>
+    <cellStyle name="Heading 4 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="56"/>
+    <cellStyle name="Input 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Linked Cell 2" xfId="59"/>
+    <cellStyle name="Linked Cell 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="55"/>
+    <cellStyle name="Neutral 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="Normal 3" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="62"/>
+    <cellStyle name="Note 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="57"/>
+    <cellStyle name="Output 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="Percent" xfId="42" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="89"/>
+    <cellStyle name="Percent 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="64"/>
+    <cellStyle name="Total 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Warning Text 2" xfId="61"/>
+    <cellStyle name="Warning Text 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FF009900"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF0066FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF0000"/>
@@ -4439,33 +4494,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D368"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1098</v>
       </c>
@@ -4476,10 +4531,10 @@
         <v>1100</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>618</v>
       </c>
@@ -4493,7 +4548,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>618</v>
       </c>
@@ -4507,7 +4562,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>618</v>
       </c>
@@ -4521,7 +4576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>618</v>
       </c>
@@ -4535,7 +4590,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>618</v>
       </c>
@@ -4549,7 +4604,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>618</v>
       </c>
@@ -4563,7 +4618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>618</v>
       </c>
@@ -4577,7 +4632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>618</v>
       </c>
@@ -4591,7 +4646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>618</v>
       </c>
@@ -4605,7 +4660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>618</v>
       </c>
@@ -4619,7 +4674,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>618</v>
       </c>
@@ -4633,7 +4688,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>618</v>
       </c>
@@ -4647,7 +4702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>618</v>
       </c>
@@ -4661,7 +4716,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>618</v>
       </c>
@@ -4675,7 +4730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>618</v>
       </c>
@@ -4689,7 +4744,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>618</v>
       </c>
@@ -4703,7 +4758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>618</v>
       </c>
@@ -4717,7 +4772,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>618</v>
       </c>
@@ -4731,7 +4786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>618</v>
       </c>
@@ -4745,7 +4800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>618</v>
       </c>
@@ -4759,7 +4814,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>618</v>
       </c>
@@ -4773,7 +4828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>618</v>
       </c>
@@ -4787,7 +4842,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>618</v>
       </c>
@@ -4801,7 +4856,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>618</v>
       </c>
@@ -4815,7 +4870,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>618</v>
       </c>
@@ -4829,7 +4884,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>618</v>
       </c>
@@ -4843,7 +4898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>272</v>
       </c>
@@ -4857,7 +4912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>272</v>
       </c>
@@ -4871,7 +4926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>272</v>
       </c>
@@ -4885,7 +4940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>272</v>
       </c>
@@ -4899,7 +4954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>272</v>
       </c>
@@ -4913,7 +4968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>272</v>
       </c>
@@ -4927,7 +4982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>272</v>
       </c>
@@ -4941,7 +4996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>272</v>
       </c>
@@ -4955,7 +5010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>272</v>
       </c>
@@ -4969,7 +5024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>272</v>
       </c>
@@ -4983,7 +5038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>272</v>
       </c>
@@ -4997,7 +5052,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>272</v>
       </c>
@@ -5011,7 +5066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>272</v>
       </c>
@@ -5025,7 +5080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>272</v>
       </c>
@@ -5039,7 +5094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>272</v>
       </c>
@@ -5053,7 +5108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>272</v>
       </c>
@@ -5067,7 +5122,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>272</v>
       </c>
@@ -5081,7 +5136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>272</v>
       </c>
@@ -5095,7 +5150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>273</v>
       </c>
@@ -5109,7 +5164,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>273</v>
       </c>
@@ -5123,7 +5178,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>273</v>
       </c>
@@ -5137,7 +5192,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>273</v>
       </c>
@@ -5151,7 +5206,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>273</v>
       </c>
@@ -5165,7 +5220,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>273</v>
       </c>
@@ -5179,7 +5234,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>273</v>
       </c>
@@ -5193,7 +5248,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>273</v>
       </c>
@@ -5207,7 +5262,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>273</v>
       </c>
@@ -5221,7 +5276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>273</v>
       </c>
@@ -5235,7 +5290,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>273</v>
       </c>
@@ -5249,7 +5304,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>273</v>
       </c>
@@ -5263,7 +5318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>273</v>
       </c>
@@ -5277,7 +5332,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>273</v>
       </c>
@@ -5291,7 +5346,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>273</v>
       </c>
@@ -5305,7 +5360,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>273</v>
       </c>
@@ -5319,7 +5374,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>273</v>
       </c>
@@ -5333,7 +5388,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>273</v>
       </c>
@@ -5347,7 +5402,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>273</v>
       </c>
@@ -5361,7 +5416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>273</v>
       </c>
@@ -5375,7 +5430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>273</v>
       </c>
@@ -5389,7 +5444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>273</v>
       </c>
@@ -5403,7 +5458,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>273</v>
       </c>
@@ -5417,7 +5472,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>273</v>
       </c>
@@ -5431,7 +5486,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>273</v>
       </c>
@@ -5445,7 +5500,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>273</v>
       </c>
@@ -5459,7 +5514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>273</v>
       </c>
@@ -5473,7 +5528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>273</v>
       </c>
@@ -5487,7 +5542,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>273</v>
       </c>
@@ -5501,7 +5556,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>273</v>
       </c>
@@ -5515,7 +5570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>273</v>
       </c>
@@ -5529,7 +5584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>273</v>
       </c>
@@ -5543,7 +5598,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>273</v>
       </c>
@@ -5557,7 +5612,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>273</v>
       </c>
@@ -5571,7 +5626,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5640,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>273</v>
       </c>
@@ -5599,7 +5654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>617</v>
       </c>
@@ -5613,7 +5668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>617</v>
       </c>
@@ -5627,7 +5682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>617</v>
       </c>
@@ -5641,7 +5696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>617</v>
       </c>
@@ -5655,7 +5710,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>617</v>
       </c>
@@ -5669,7 +5724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>617</v>
       </c>
@@ -5683,7 +5738,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>617</v>
       </c>
@@ -5697,7 +5752,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>617</v>
       </c>
@@ -5711,7 +5766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>617</v>
       </c>
@@ -5725,7 +5780,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>617</v>
       </c>
@@ -5739,7 +5794,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>617</v>
       </c>
@@ -5753,7 +5808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>617</v>
       </c>
@@ -5767,7 +5822,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>617</v>
       </c>
@@ -5781,7 +5836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>617</v>
       </c>
@@ -5795,7 +5850,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>617</v>
       </c>
@@ -5809,21 +5864,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>617</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>617</v>
       </c>
@@ -5837,7 +5892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>617</v>
       </c>
@@ -5851,7 +5906,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>617</v>
       </c>
@@ -5865,7 +5920,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>617</v>
       </c>
@@ -5879,7 +5934,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>617</v>
       </c>
@@ -5893,7 +5948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>617</v>
       </c>
@@ -5907,7 +5962,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>617</v>
       </c>
@@ -5921,7 +5976,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>617</v>
       </c>
@@ -5935,7 +5990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>617</v>
       </c>
@@ -5949,7 +6004,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>617</v>
       </c>
@@ -5963,7 +6018,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>274</v>
       </c>
@@ -5977,7 +6032,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>274</v>
       </c>
@@ -5991,7 +6046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>274</v>
       </c>
@@ -6005,7 +6060,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>274</v>
       </c>
@@ -6019,7 +6074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>274</v>
       </c>
@@ -6033,7 +6088,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>274</v>
       </c>
@@ -6047,7 +6102,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>274</v>
       </c>
@@ -6061,7 +6116,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>274</v>
       </c>
@@ -6075,7 +6130,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>274</v>
       </c>
@@ -6089,7 +6144,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>274</v>
       </c>
@@ -6103,7 +6158,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>274</v>
       </c>
@@ -6117,7 +6172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>275</v>
       </c>
@@ -6131,7 +6186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>275</v>
       </c>
@@ -6145,7 +6200,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>275</v>
       </c>
@@ -6159,7 +6214,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>275</v>
       </c>
@@ -6173,7 +6228,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>616</v>
       </c>
@@ -6187,7 +6242,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>616</v>
       </c>
@@ -6201,7 +6256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>616</v>
       </c>
@@ -6215,7 +6270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>616</v>
       </c>
@@ -6229,7 +6284,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>616</v>
       </c>
@@ -6243,7 +6298,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>616</v>
       </c>
@@ -6257,7 +6312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>616</v>
       </c>
@@ -6271,7 +6326,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>616</v>
       </c>
@@ -6285,7 +6340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>276</v>
       </c>
@@ -6299,7 +6354,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>276</v>
       </c>
@@ -6313,7 +6368,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>276</v>
       </c>
@@ -6327,7 +6382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>276</v>
       </c>
@@ -6341,7 +6396,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>277</v>
       </c>
@@ -6355,7 +6410,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>277</v>
       </c>
@@ -6369,7 +6424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>277</v>
       </c>
@@ -6383,7 +6438,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>277</v>
       </c>
@@ -6397,7 +6452,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>277</v>
       </c>
@@ -6411,7 +6466,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>277</v>
       </c>
@@ -6425,7 +6480,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>277</v>
       </c>
@@ -6439,7 +6494,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>277</v>
       </c>
@@ -6453,7 +6508,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>277</v>
       </c>
@@ -6467,7 +6522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>277</v>
       </c>
@@ -6481,7 +6536,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>277</v>
       </c>
@@ -6495,7 +6550,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>277</v>
       </c>
@@ -6509,7 +6564,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>277</v>
       </c>
@@ -6523,7 +6578,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>277</v>
       </c>
@@ -6537,7 +6592,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>277</v>
       </c>
@@ -6551,7 +6606,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>277</v>
       </c>
@@ -6565,7 +6620,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>277</v>
       </c>
@@ -6579,7 +6634,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>277</v>
       </c>
@@ -6593,7 +6648,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>277</v>
       </c>
@@ -6607,7 +6662,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>277</v>
       </c>
@@ -6621,7 +6676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>277</v>
       </c>
@@ -6635,7 +6690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>277</v>
       </c>
@@ -6649,7 +6704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>277</v>
       </c>
@@ -6663,7 +6718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>277</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>277</v>
       </c>
@@ -6691,7 +6746,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>277</v>
       </c>
@@ -6705,7 +6760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>277</v>
       </c>
@@ -6719,7 +6774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>277</v>
       </c>
@@ -6733,7 +6788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>277</v>
       </c>
@@ -6747,7 +6802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>277</v>
       </c>
@@ -6761,7 +6816,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>277</v>
       </c>
@@ -6775,7 +6830,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>277</v>
       </c>
@@ -6789,7 +6844,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>277</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>615</v>
       </c>
@@ -6817,7 +6872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>615</v>
       </c>
@@ -6831,7 +6886,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>614</v>
       </c>
@@ -6845,7 +6900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>614</v>
       </c>
@@ -6859,7 +6914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>614</v>
       </c>
@@ -6873,7 +6928,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>614</v>
       </c>
@@ -6887,7 +6942,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>278</v>
       </c>
@@ -6901,7 +6956,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>278</v>
       </c>
@@ -6915,7 +6970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>278</v>
       </c>
@@ -6929,7 +6984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>278</v>
       </c>
@@ -6943,7 +6998,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>278</v>
       </c>
@@ -6957,7 +7012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>278</v>
       </c>
@@ -6971,7 +7026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>278</v>
       </c>
@@ -6985,7 +7040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>278</v>
       </c>
@@ -6999,7 +7054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>278</v>
       </c>
@@ -7013,2586 +7068,2629 @@
         <v>984</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>447</v>
+        <v>17</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1093</v>
+        <v>788</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>787</v>
+        <v>1093</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>39</v>
+        <v>786</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>785</v>
+        <v>39</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>427</v>
+        <v>164</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>25</v>
+        <v>783</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>780</v>
+        <v>25</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1070</v>
+        <v>781</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>778</v>
+        <v>1070</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>31</v>
+        <v>779</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>776</v>
+        <v>31</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>15</v>
+        <v>773</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>770</v>
+        <v>15</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>46</v>
+        <v>771</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>768</v>
+        <v>46</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>23</v>
+        <v>409</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>10</v>
+        <v>763</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>762</v>
+        <v>10</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>761</v>
+        <v>7</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C237" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>212</v>
+        <v>813</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1072</v>
+        <v>212</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>225</v>
+        <v>811</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>223</v>
+        <v>1072</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>810</v>
+        <v>225</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>808</v>
+        <v>219</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="C251" s="18" t="s">
-        <v>1104</v>
+        <v>805</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C254" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1077</v>
+        <v>830</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>114</v>
+        <v>1074</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>825</v>
+        <v>114</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>265</v>
+        <v>823</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>820</v>
+        <v>265</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1076</v>
+        <v>820</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>365</v>
+        <v>110</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>817</v>
+        <v>1076</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>126</v>
+        <v>818</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1075</v>
+        <v>817</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>816</v>
+        <v>1075</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1073</v>
+        <v>128</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C282" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D282" s="9" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D282" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>844</v>
+        <v>701</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>874</v>
+        <v>836</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C304" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D304" s="9" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D303" s="9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="C305" s="18" t="s">
-        <v>1105</v>
+        <v>866</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>331</v>
+        <v>865</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>1104</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>242</v>
+        <v>864</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>863</v>
+        <v>1080</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1079</v>
+        <v>242</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>861</v>
+        <v>1079</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="C324" s="19" t="s">
-        <v>1106</v>
+        <v>852</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1078</v>
+        <v>851</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>315</v>
+        <v>850</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>1105</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>848</v>
+        <v>1078</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B332" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C332" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D330" s="9" t="s">
+      <c r="D332" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D331" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D332" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B338" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C340" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D338" s="9" t="s">
+      <c r="D340" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D339" s="9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D340" s="9" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>174</v>
+        <v>891</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D346" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>888</v>
+        <v>174</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D349" s="9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D349" s="24" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B353" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B356" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C356" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D353" s="9" t="s">
+      <c r="D356" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="8" t="s">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B357" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C354" s="11" t="s">
+      <c r="C357" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D357" s="7" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="D356" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D357" s="9" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1087</v>
+        <v>898</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D361" s="9" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1086</v>
+        <v>897</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1085</v>
+        <v>896</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B367" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C367" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D364" s="9" t="s">
+      <c r="D367" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D367" s="9" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>611</v>
       </c>
       <c r="B368" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B371" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C371" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D368" s="9" t="s">
+      <c r="D371" s="9" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H368"/>
-  <sortState ref="A2:J366">
-    <sortCondition ref="A348"/>
+  <autoFilter ref="A3:D368" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState ref="A4:D371">
+    <sortCondition ref="A4:A371"/>
+    <sortCondition ref="B4:B371"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -9600,20 +9698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1091</v>
       </c>
@@ -9621,7 +9719,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>618</v>
       </c>
@@ -9629,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -9637,7 +9735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>273</v>
       </c>
@@ -9645,7 +9743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>617</v>
       </c>
@@ -9653,7 +9751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -9661,7 +9759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -9669,7 +9767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>616</v>
       </c>
@@ -9677,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -9685,7 +9783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -9693,7 +9791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>615</v>
       </c>
@@ -9701,7 +9799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>614</v>
       </c>
@@ -9709,15 +9807,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>278</v>
       </c>
       <c r="B13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>613</v>
       </c>
@@ -9725,7 +9823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>279</v>
       </c>
@@ -9733,7 +9831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>280</v>
       </c>
@@ -9741,7 +9839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>281</v>
       </c>
@@ -9749,7 +9847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>282</v>
       </c>
@@ -9757,15 +9855,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>612</v>
       </c>
       <c r="B19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -9773,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>619</v>
       </c>
@@ -9781,7 +9879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>611</v>
       </c>
@@ -9796,46 +9894,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
